--- a/data/test1.xlsx
+++ b/data/test1.xlsx
@@ -1692,7 +1692,7 @@
   <dimension ref="A1:FG48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DB1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DH13" activeCellId="0" sqref="DH13"/>
+      <selection pane="topLeft" activeCell="DG1" activeCellId="0" sqref="DG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8473,7 +8473,9 @@
       <c r="DF15" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="DG15" s="10"/>
+      <c r="DG15" s="10" t="n">
+        <v>5600</v>
+      </c>
       <c r="DH15" s="16" t="n">
         <v>52</v>
       </c>
